--- a/data/pca/factorExposure/factorExposure_2016-05-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-05-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01015142465019056</v>
+        <v>0.01282687361367137</v>
       </c>
       <c r="C2">
-        <v>-0.05505456468237957</v>
+        <v>0.03892639065978757</v>
       </c>
       <c r="D2">
-        <v>-0.03949472413121048</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.05354855462491536</v>
+      </c>
+      <c r="E2">
+        <v>-0.08716344568009567</v>
+      </c>
+      <c r="F2">
+        <v>0.08650656388740514</v>
+      </c>
+      <c r="G2">
+        <v>-0.006304849717193774</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04034476254701646</v>
+        <v>0.02550941405760291</v>
       </c>
       <c r="C3">
-        <v>-0.1178511099549072</v>
+        <v>0.06753621424709469</v>
       </c>
       <c r="D3">
-        <v>-0.08946901536159792</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07321674400589658</v>
+      </c>
+      <c r="E3">
+        <v>-0.06708183868860784</v>
+      </c>
+      <c r="F3">
+        <v>-0.02445901573955956</v>
+      </c>
+      <c r="G3">
+        <v>-0.0411288958721215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.05883944615969527</v>
+        <v>0.05756019672899849</v>
       </c>
       <c r="C4">
-        <v>-0.06261158623677519</v>
+        <v>0.06492910753082455</v>
       </c>
       <c r="D4">
-        <v>-0.02742148966462783</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.04895743680493532</v>
+      </c>
+      <c r="E4">
+        <v>-0.08541241437616559</v>
+      </c>
+      <c r="F4">
+        <v>0.06025583734963647</v>
+      </c>
+      <c r="G4">
+        <v>-0.07858887829338423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.0397113666444551</v>
+        <v>0.03521151355538683</v>
       </c>
       <c r="C6">
-        <v>-0.03621970233027683</v>
+        <v>0.02812708894127323</v>
       </c>
       <c r="D6">
-        <v>-0.03154614249835638</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.05795415849078386</v>
+      </c>
+      <c r="E6">
+        <v>-0.08836987490092887</v>
+      </c>
+      <c r="F6">
+        <v>0.04418701926676188</v>
+      </c>
+      <c r="G6">
+        <v>-0.06157802865731141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02140797477408222</v>
+        <v>0.01730198994400003</v>
       </c>
       <c r="C7">
-        <v>-0.04719986761304944</v>
+        <v>0.03987108241728025</v>
       </c>
       <c r="D7">
-        <v>0.01001701441299703</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03143487350906843</v>
+      </c>
+      <c r="E7">
+        <v>-0.06118166822242273</v>
+      </c>
+      <c r="F7">
+        <v>0.09101027889160175</v>
+      </c>
+      <c r="G7">
+        <v>-0.07181291041068238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.005678458684939379</v>
+        <v>0.003226466380451026</v>
       </c>
       <c r="C8">
-        <v>-0.03561508292857465</v>
+        <v>0.03214675267788516</v>
       </c>
       <c r="D8">
-        <v>-0.02548251038827062</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02949778566188944</v>
+      </c>
+      <c r="E8">
+        <v>-0.05775281912845812</v>
+      </c>
+      <c r="F8">
+        <v>0.02861957302992411</v>
+      </c>
+      <c r="G8">
+        <v>-0.03293135518521467</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03305897065692791</v>
+        <v>0.03683767918607315</v>
       </c>
       <c r="C9">
-        <v>-0.04943830535312092</v>
+        <v>0.05217116134219736</v>
       </c>
       <c r="D9">
-        <v>-0.01182054912363356</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.03505183284966464</v>
+      </c>
+      <c r="E9">
+        <v>-0.07166053625551877</v>
+      </c>
+      <c r="F9">
+        <v>0.07080898002907234</v>
+      </c>
+      <c r="G9">
+        <v>-0.068839654553633</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.08008779639953303</v>
+        <v>0.1038405527071334</v>
       </c>
       <c r="C10">
-        <v>0.1880675447249889</v>
+        <v>-0.195710228483724</v>
       </c>
       <c r="D10">
-        <v>0.009961840213814356</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01445490151852106</v>
+      </c>
+      <c r="E10">
+        <v>-0.03915980894986223</v>
+      </c>
+      <c r="F10">
+        <v>0.02381044077841439</v>
+      </c>
+      <c r="G10">
+        <v>-0.02729900783338945</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0408893592867165</v>
+        <v>0.03604728788248582</v>
       </c>
       <c r="C11">
-        <v>-0.05260709224972817</v>
+        <v>0.04870040033554135</v>
       </c>
       <c r="D11">
-        <v>-0.01094002032201185</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.02967683595361788</v>
+      </c>
+      <c r="E11">
+        <v>-0.02495435196275797</v>
+      </c>
+      <c r="F11">
+        <v>0.05467176432792158</v>
+      </c>
+      <c r="G11">
+        <v>-0.05425950718403749</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04277350175620632</v>
+        <v>0.03810369312413162</v>
       </c>
       <c r="C12">
-        <v>-0.04838196618688521</v>
+        <v>0.04608748029328748</v>
       </c>
       <c r="D12">
-        <v>-0.001784913817975541</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02393080144438507</v>
+      </c>
+      <c r="E12">
+        <v>-0.03325668085279351</v>
+      </c>
+      <c r="F12">
+        <v>0.05601637874124517</v>
+      </c>
+      <c r="G12">
+        <v>-0.05130152788087127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01366853545103982</v>
+        <v>0.01074036166931983</v>
       </c>
       <c r="C13">
-        <v>-0.05413610026148468</v>
+        <v>0.04242410833961223</v>
       </c>
       <c r="D13">
-        <v>-0.00663801874238665</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04153898755529319</v>
+      </c>
+      <c r="E13">
+        <v>-0.09595372833177605</v>
+      </c>
+      <c r="F13">
+        <v>0.07967281251687425</v>
+      </c>
+      <c r="G13">
+        <v>-0.07725444196130304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.007298990909250121</v>
+        <v>0.00413008678930343</v>
       </c>
       <c r="C14">
-        <v>-0.04243200638039146</v>
+        <v>0.0335818775058964</v>
       </c>
       <c r="D14">
-        <v>0.01092888612436339</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.0217597402038921</v>
+      </c>
+      <c r="E14">
+        <v>-0.04939789997252673</v>
+      </c>
+      <c r="F14">
+        <v>0.09089670294600927</v>
+      </c>
+      <c r="G14">
+        <v>-0.05675255184594703</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0002133658592195773</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005364901052971357</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.006994431640088028</v>
+      </c>
+      <c r="E15">
+        <v>-0.004619636865336267</v>
+      </c>
+      <c r="F15">
+        <v>0.006378937724481071</v>
+      </c>
+      <c r="G15">
+        <v>-0.00466758790564863</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03781656537992408</v>
+        <v>0.03387881229688507</v>
       </c>
       <c r="C16">
-        <v>-0.05033620334075434</v>
+        <v>0.04541084052986485</v>
       </c>
       <c r="D16">
-        <v>-0.005347365151634773</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02311168174372691</v>
+      </c>
+      <c r="E16">
+        <v>-0.03967741130299389</v>
+      </c>
+      <c r="F16">
+        <v>0.06131192497531725</v>
+      </c>
+      <c r="G16">
+        <v>-0.04042355105886076</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02244207880896758</v>
+        <v>0.0168926813526632</v>
       </c>
       <c r="C19">
-        <v>-0.06202919268299759</v>
+        <v>0.04472814960773076</v>
       </c>
       <c r="D19">
-        <v>-0.08906046041348457</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.08767057668073375</v>
+      </c>
+      <c r="E19">
+        <v>-0.1123624288253215</v>
+      </c>
+      <c r="F19">
+        <v>0.07387661156072423</v>
+      </c>
+      <c r="G19">
+        <v>-0.0255072361006365</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01606252787189476</v>
+        <v>0.01278821737761974</v>
       </c>
       <c r="C20">
-        <v>-0.04800658567810753</v>
+        <v>0.03916293575648132</v>
       </c>
       <c r="D20">
-        <v>-0.007382303336420804</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.02948236092661757</v>
+      </c>
+      <c r="E20">
+        <v>-0.07592961542051746</v>
+      </c>
+      <c r="F20">
+        <v>0.06554131199877471</v>
+      </c>
+      <c r="G20">
+        <v>-0.05273991478375349</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01049962031152248</v>
+        <v>0.009410576019185225</v>
       </c>
       <c r="C21">
-        <v>-0.04938596603504814</v>
+        <v>0.04091088570595831</v>
       </c>
       <c r="D21">
-        <v>-0.03698195342365398</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.05555731649036694</v>
+      </c>
+      <c r="E21">
+        <v>-0.1173147471171594</v>
+      </c>
+      <c r="F21">
+        <v>0.1055107215690294</v>
+      </c>
+      <c r="G21">
+        <v>-0.07895372364431023</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.001154191848000181</v>
+        <v>0.002348079838696859</v>
       </c>
       <c r="C22">
-        <v>-0.000747162095602253</v>
+        <v>0.02685220590356728</v>
       </c>
       <c r="D22">
-        <v>-0.003031470927586908</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.04187612741063639</v>
+      </c>
+      <c r="E22">
+        <v>-0.04144629692959492</v>
+      </c>
+      <c r="F22">
+        <v>-0.001058104516677961</v>
+      </c>
+      <c r="G22">
+        <v>-0.05239426773510764</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.001159863866566636</v>
+        <v>0.002427081271754078</v>
       </c>
       <c r="C23">
-        <v>-0.0007474748567503884</v>
+        <v>0.02700521610756354</v>
       </c>
       <c r="D23">
-        <v>-0.003036981666623743</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.04146395343261034</v>
+      </c>
+      <c r="E23">
+        <v>-0.04169541351898218</v>
+      </c>
+      <c r="F23">
+        <v>-0.001323957573642581</v>
+      </c>
+      <c r="G23">
+        <v>-0.05245616090407688</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.0349470142883235</v>
+        <v>0.03407716018922505</v>
       </c>
       <c r="C24">
-        <v>-0.05117440778214064</v>
+        <v>0.05272042967655077</v>
       </c>
       <c r="D24">
-        <v>-0.006772689871679924</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02288352400200958</v>
+      </c>
+      <c r="E24">
+        <v>-0.04061504667162336</v>
+      </c>
+      <c r="F24">
+        <v>0.06452427695146744</v>
+      </c>
+      <c r="G24">
+        <v>-0.05126427610793911</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04784067412081458</v>
+        <v>0.0432739626235323</v>
       </c>
       <c r="C25">
-        <v>-0.06196083985352915</v>
+        <v>0.05664966799101326</v>
       </c>
       <c r="D25">
-        <v>0.004187361414389942</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02221516590902123</v>
+      </c>
+      <c r="E25">
+        <v>-0.03034448385476796</v>
+      </c>
+      <c r="F25">
+        <v>0.0590513860186725</v>
+      </c>
+      <c r="G25">
+        <v>-0.06662159764784482</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01582240383477717</v>
+        <v>0.01458702146734294</v>
       </c>
       <c r="C26">
-        <v>-0.01810748696983768</v>
+        <v>0.0178425279244041</v>
       </c>
       <c r="D26">
-        <v>-0.0003530546581218065</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.0220107681318584</v>
+      </c>
+      <c r="E26">
+        <v>-0.04996396121297885</v>
+      </c>
+      <c r="F26">
+        <v>0.06626033555573749</v>
+      </c>
+      <c r="G26">
+        <v>-0.02956971973614989</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09499948590960433</v>
+        <v>0.1393332973502249</v>
       </c>
       <c r="C28">
-        <v>0.2454275362092544</v>
+        <v>-0.2507617558703087</v>
       </c>
       <c r="D28">
-        <v>0.00758507142244371</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.02809608950427748</v>
+      </c>
+      <c r="E28">
+        <v>-0.05470951845092397</v>
+      </c>
+      <c r="F28">
+        <v>0.03544454151626597</v>
+      </c>
+      <c r="G28">
+        <v>-0.04710892623523785</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.006446769596027676</v>
+        <v>0.004917294337773058</v>
       </c>
       <c r="C29">
-        <v>-0.0341606973837712</v>
+        <v>0.02975912538194233</v>
       </c>
       <c r="D29">
-        <v>0.01594146379221348</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01532423883505649</v>
+      </c>
+      <c r="E29">
+        <v>-0.04756411535794816</v>
+      </c>
+      <c r="F29">
+        <v>0.08018054641691319</v>
+      </c>
+      <c r="G29">
+        <v>-0.06517290048170897</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04423407204793227</v>
+        <v>0.04026455343323194</v>
       </c>
       <c r="C30">
-        <v>-0.05370216230319032</v>
+        <v>0.05700873968879949</v>
       </c>
       <c r="D30">
-        <v>-0.06789510774569711</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.09475163329989124</v>
+      </c>
+      <c r="E30">
+        <v>-0.07834597166610215</v>
+      </c>
+      <c r="F30">
+        <v>0.08517711527654452</v>
+      </c>
+      <c r="G30">
+        <v>-0.04147578493747595</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05805149957023295</v>
+        <v>0.0567350103784014</v>
       </c>
       <c r="C31">
-        <v>-0.04491657060176574</v>
+        <v>0.06142330438813482</v>
       </c>
       <c r="D31">
-        <v>0.03510307969121514</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.01650528101129721</v>
+      </c>
+      <c r="E31">
+        <v>-0.06505205553161392</v>
+      </c>
+      <c r="F31">
+        <v>0.04279318391830458</v>
+      </c>
+      <c r="G31">
+        <v>-0.0799323313053542</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.001610450930409263</v>
+        <v>0.004578096101342623</v>
       </c>
       <c r="C32">
-        <v>-0.04313686580009943</v>
+        <v>0.03440570857759058</v>
       </c>
       <c r="D32">
-        <v>-0.04797300275216246</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05158046292760162</v>
+      </c>
+      <c r="E32">
+        <v>-0.05795520286567934</v>
+      </c>
+      <c r="F32">
+        <v>0.07230136966937477</v>
+      </c>
+      <c r="G32">
+        <v>-0.03472982487211263</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03082273852338744</v>
+        <v>0.02579973092044239</v>
       </c>
       <c r="C33">
-        <v>-0.06001943089798489</v>
+        <v>0.05357778958872315</v>
       </c>
       <c r="D33">
-        <v>-0.03896223460702648</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.06890042475750754</v>
+      </c>
+      <c r="E33">
+        <v>-0.09011985374535285</v>
+      </c>
+      <c r="F33">
+        <v>0.0914897269745608</v>
+      </c>
+      <c r="G33">
+        <v>-0.07923856221260112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04506590596753238</v>
+        <v>0.04033743705400314</v>
       </c>
       <c r="C34">
-        <v>-0.06697858334925015</v>
+        <v>0.06451310318832099</v>
       </c>
       <c r="D34">
-        <v>-0.01431501721119084</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03583309679008845</v>
+      </c>
+      <c r="E34">
+        <v>-0.01281935167910652</v>
+      </c>
+      <c r="F34">
+        <v>0.06654354944126573</v>
+      </c>
+      <c r="G34">
+        <v>-0.05240264209052978</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01638565267545672</v>
+        <v>0.01423534580211284</v>
       </c>
       <c r="C36">
-        <v>-0.01701453649687627</v>
+        <v>0.01362105735579938</v>
       </c>
       <c r="D36">
-        <v>0.0046773527889349</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02089905861941413</v>
+      </c>
+      <c r="E36">
+        <v>-0.05760197875096748</v>
+      </c>
+      <c r="F36">
+        <v>0.06090391875844239</v>
+      </c>
+      <c r="G36">
+        <v>-0.05020681989963772</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02963103165523305</v>
+        <v>0.02310597484071973</v>
       </c>
       <c r="C38">
-        <v>-0.03080111534947234</v>
+        <v>0.02377065810840947</v>
       </c>
       <c r="D38">
-        <v>0.0164278199381699</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0186869345222175</v>
+      </c>
+      <c r="E38">
+        <v>-0.04978953941375853</v>
+      </c>
+      <c r="F38">
+        <v>0.05022629886823218</v>
+      </c>
+      <c r="G38">
+        <v>-0.03380503225418647</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04541570303936791</v>
+        <v>0.03946081875899551</v>
       </c>
       <c r="C39">
-        <v>-0.06534146353818626</v>
+        <v>0.06398002765921243</v>
       </c>
       <c r="D39">
-        <v>-0.01502150600001661</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.04663005570926924</v>
+      </c>
+      <c r="E39">
+        <v>-0.04640096537746854</v>
+      </c>
+      <c r="F39">
+        <v>0.0849671701185252</v>
+      </c>
+      <c r="G39">
+        <v>-0.04006937221903866</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.0121222610064927</v>
+        <v>0.0126305714103039</v>
       </c>
       <c r="C40">
-        <v>-0.05246057052620644</v>
+        <v>0.03783801829567614</v>
       </c>
       <c r="D40">
-        <v>-0.01055293087122621</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.0256046744701168</v>
+      </c>
+      <c r="E40">
+        <v>-0.08237270675677243</v>
+      </c>
+      <c r="F40">
+        <v>0.05639187989818451</v>
+      </c>
+      <c r="G40">
+        <v>-0.08921553497439276</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02257840102792582</v>
+        <v>0.01929708321800012</v>
       </c>
       <c r="C41">
-        <v>-0.01429430117619091</v>
+        <v>0.01041661410952459</v>
       </c>
       <c r="D41">
-        <v>-6.887875572899588e-05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01433153391448319</v>
+      </c>
+      <c r="E41">
+        <v>-0.05829760906524706</v>
+      </c>
+      <c r="F41">
+        <v>0.05562170341063027</v>
+      </c>
+      <c r="G41">
+        <v>-0.04201602644781112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03984271954627994</v>
+        <v>0.02926948066066222</v>
       </c>
       <c r="C43">
-        <v>-0.03411191891949742</v>
+        <v>0.02478189460196557</v>
       </c>
       <c r="D43">
-        <v>-0.02627676554847174</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.04098512768214183</v>
+      </c>
+      <c r="E43">
+        <v>-0.07359684871826093</v>
+      </c>
+      <c r="F43">
+        <v>0.05584881015948586</v>
+      </c>
+      <c r="G43">
+        <v>-0.06655600685645649</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01289065686796846</v>
+        <v>0.01405372963617945</v>
       </c>
       <c r="C44">
-        <v>-0.06770482241590417</v>
+        <v>0.04811096643204925</v>
       </c>
       <c r="D44">
-        <v>-0.006610646032946218</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.02965710828215199</v>
+      </c>
+      <c r="E44">
+        <v>-0.08702717566241172</v>
+      </c>
+      <c r="F44">
+        <v>0.06799229845085247</v>
+      </c>
+      <c r="G44">
+        <v>-0.03184908345268217</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.007598992854782604</v>
+        <v>0.008441351964938195</v>
       </c>
       <c r="C46">
-        <v>-0.02926737098885569</v>
+        <v>0.02957273731332081</v>
       </c>
       <c r="D46">
-        <v>0.01744871992187289</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.009126725783552387</v>
+      </c>
+      <c r="E46">
+        <v>-0.05602194515688979</v>
+      </c>
+      <c r="F46">
+        <v>0.09306748892920876</v>
+      </c>
+      <c r="G46">
+        <v>-0.06313174410443485</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08412770331160041</v>
+        <v>0.08821074046363936</v>
       </c>
       <c r="C47">
-        <v>-0.07160678888115085</v>
+        <v>0.08186706121967995</v>
       </c>
       <c r="D47">
-        <v>0.03160862739207106</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.0231893983299917</v>
+      </c>
+      <c r="E47">
+        <v>-0.0676364086006332</v>
+      </c>
+      <c r="F47">
+        <v>0.04142531099479219</v>
+      </c>
+      <c r="G47">
+        <v>-0.07845041118676738</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01870621210818688</v>
+        <v>0.01669927820861978</v>
       </c>
       <c r="C48">
-        <v>-0.01471313760451422</v>
+        <v>0.01617083291185578</v>
       </c>
       <c r="D48">
-        <v>0.0191242405292183</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.008688379449322232</v>
+      </c>
+      <c r="E48">
+        <v>-0.06739568773775317</v>
+      </c>
+      <c r="F48">
+        <v>0.07776664262629245</v>
+      </c>
+      <c r="G48">
+        <v>-0.05834533424785766</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08103626989584259</v>
+        <v>0.0703674493420583</v>
       </c>
       <c r="C50">
-        <v>-0.08311355670951155</v>
+        <v>0.07631608232759965</v>
       </c>
       <c r="D50">
-        <v>0.0321953560029274</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.008095031043409823</v>
+      </c>
+      <c r="E50">
+        <v>-0.07429712693280757</v>
+      </c>
+      <c r="F50">
+        <v>0.01725285416500794</v>
+      </c>
+      <c r="G50">
+        <v>-0.09425373942828945</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01519541929589542</v>
+        <v>0.009536046867760448</v>
       </c>
       <c r="C51">
-        <v>-0.04966091918565621</v>
+        <v>0.03200089828510953</v>
       </c>
       <c r="D51">
-        <v>-0.03239854275255426</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.05083393639169305</v>
+      </c>
+      <c r="E51">
+        <v>-0.04876870652532873</v>
+      </c>
+      <c r="F51">
+        <v>0.0793867936851185</v>
+      </c>
+      <c r="G51">
+        <v>-0.03795663259050072</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08348500909251097</v>
+        <v>0.0958241671301712</v>
       </c>
       <c r="C53">
-        <v>-0.07552937143761083</v>
+        <v>0.08607902761255534</v>
       </c>
       <c r="D53">
-        <v>0.05205338653808527</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.05556860189914137</v>
+      </c>
+      <c r="E53">
+        <v>-0.06122771629676573</v>
+      </c>
+      <c r="F53">
+        <v>0.03765712875964062</v>
+      </c>
+      <c r="G53">
+        <v>-0.07880986401020273</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03213330012847696</v>
+        <v>0.02692367356599028</v>
       </c>
       <c r="C54">
-        <v>-0.04000466861157748</v>
+        <v>0.03373100129555033</v>
       </c>
       <c r="D54">
-        <v>0.002590856868506421</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02227206407468634</v>
+      </c>
+      <c r="E54">
+        <v>-0.05600521080696367</v>
+      </c>
+      <c r="F54">
+        <v>0.08628416634254081</v>
+      </c>
+      <c r="G54">
+        <v>-0.0640488069788241</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07625879951430194</v>
+        <v>0.08666386411316501</v>
       </c>
       <c r="C55">
-        <v>-0.05670209457190801</v>
+        <v>0.06955558894275554</v>
       </c>
       <c r="D55">
-        <v>0.05756147836988969</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.05829974931922265</v>
+      </c>
+      <c r="E55">
+        <v>-0.04330243894046133</v>
+      </c>
+      <c r="F55">
+        <v>0.02027053495347807</v>
+      </c>
+      <c r="G55">
+        <v>-0.05992744163021354</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1474082171747944</v>
+        <v>0.1493202994398195</v>
       </c>
       <c r="C56">
-        <v>-0.09250185493533024</v>
+        <v>0.1067277229743068</v>
       </c>
       <c r="D56">
-        <v>0.05081225067843839</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05495123000026429</v>
+      </c>
+      <c r="E56">
+        <v>-0.04211646176771323</v>
+      </c>
+      <c r="F56">
+        <v>-0.003011261198923941</v>
+      </c>
+      <c r="G56">
+        <v>-0.04122361858014804</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04410456746060308</v>
+        <v>0.02646992185711698</v>
       </c>
       <c r="C58">
-        <v>-0.02568488907139141</v>
+        <v>0.025622643497951</v>
       </c>
       <c r="D58">
-        <v>-0.6773850508115132</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.370273297401568</v>
+      </c>
+      <c r="E58">
+        <v>-0.6654895660402279</v>
+      </c>
+      <c r="F58">
+        <v>-0.4796584604037469</v>
+      </c>
+      <c r="G58">
+        <v>0.332500518076968</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1337036622345883</v>
+        <v>0.1464207956634846</v>
       </c>
       <c r="C59">
-        <v>0.1986696654264073</v>
+        <v>-0.1878757484850746</v>
       </c>
       <c r="D59">
-        <v>-0.02435159949365443</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02642815546683489</v>
+      </c>
+      <c r="E59">
+        <v>-0.02798914696758438</v>
+      </c>
+      <c r="F59">
+        <v>0.02680883054191971</v>
+      </c>
+      <c r="G59">
+        <v>0.02041597148235656</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3082733539586373</v>
+        <v>0.2783703343411842</v>
       </c>
       <c r="C60">
-        <v>-0.1104720442850654</v>
+        <v>0.1087816576595092</v>
       </c>
       <c r="D60">
-        <v>-0.1684780355932322</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2670964055155918</v>
+      </c>
+      <c r="E60">
+        <v>0.2379365545455523</v>
+      </c>
+      <c r="F60">
+        <v>-0.07433176314386726</v>
+      </c>
+      <c r="G60">
+        <v>-0.03810575715910385</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04342998351559779</v>
+        <v>0.04051036401757466</v>
       </c>
       <c r="C61">
-        <v>-0.06392185059128634</v>
+        <v>0.06050010003099669</v>
       </c>
       <c r="D61">
-        <v>-0.01008304183082663</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.03838609723770714</v>
+      </c>
+      <c r="E61">
+        <v>-0.04932669577035035</v>
+      </c>
+      <c r="F61">
+        <v>0.06661821553533616</v>
+      </c>
+      <c r="G61">
+        <v>-0.05830655742915471</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01605144570442513</v>
+        <v>0.01490193082697785</v>
       </c>
       <c r="C63">
-        <v>-0.03396745826273011</v>
+        <v>0.0316525350419257</v>
       </c>
       <c r="D63">
-        <v>0.01735725369123606</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01434351351454566</v>
+      </c>
+      <c r="E63">
+        <v>-0.05960044333984183</v>
+      </c>
+      <c r="F63">
+        <v>0.05075723990862973</v>
+      </c>
+      <c r="G63">
+        <v>-0.06645843673208804</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04997049706363343</v>
+        <v>0.05555488368107678</v>
       </c>
       <c r="C64">
-        <v>-0.04701029627646584</v>
+        <v>0.05729022991853437</v>
       </c>
       <c r="D64">
-        <v>0.0001023522908376938</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.002749140731787154</v>
+      </c>
+      <c r="E64">
+        <v>-0.03615007108700027</v>
+      </c>
+      <c r="F64">
+        <v>0.07150590919779959</v>
+      </c>
+      <c r="G64">
+        <v>-0.05057488078159784</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.0822673938875547</v>
+        <v>0.06644872056988825</v>
       </c>
       <c r="C65">
-        <v>-0.02932677474516035</v>
+        <v>0.02843596659765057</v>
       </c>
       <c r="D65">
-        <v>-0.05938008540907021</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08528430622168491</v>
+      </c>
+      <c r="E65">
+        <v>-0.05657537705064393</v>
+      </c>
+      <c r="F65">
+        <v>0.0108462830258105</v>
+      </c>
+      <c r="G65">
+        <v>-0.01991082101002547</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06098151867115631</v>
+        <v>0.0511508030166565</v>
       </c>
       <c r="C66">
-        <v>-0.08925210373653542</v>
+        <v>0.08197323203695839</v>
       </c>
       <c r="D66">
-        <v>-0.03578383635735061</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07157583385894799</v>
+      </c>
+      <c r="E66">
+        <v>-0.05523260889155821</v>
+      </c>
+      <c r="F66">
+        <v>0.08031779732361165</v>
+      </c>
+      <c r="G66">
+        <v>-0.05666469755725375</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05161979015463826</v>
+        <v>0.04490517228505623</v>
       </c>
       <c r="C67">
-        <v>-0.03181801943311305</v>
+        <v>0.02879449026084344</v>
       </c>
       <c r="D67">
-        <v>0.02315270654850465</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.003654434986698615</v>
+      </c>
+      <c r="E67">
+        <v>-0.02650080950981835</v>
+      </c>
+      <c r="F67">
+        <v>0.03664043849032159</v>
+      </c>
+      <c r="G67">
+        <v>-0.0293111452311795</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1315143278103196</v>
+        <v>0.1537312873961703</v>
       </c>
       <c r="C68">
-        <v>0.2796337943217441</v>
+        <v>-0.2432522094319513</v>
       </c>
       <c r="D68">
-        <v>0.005694715706904715</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01554542399438003</v>
+      </c>
+      <c r="E68">
+        <v>-0.0372533226290223</v>
+      </c>
+      <c r="F68">
+        <v>0.008487049179656285</v>
+      </c>
+      <c r="G68">
+        <v>-0.03021006869390207</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.0909819163909265</v>
+        <v>0.08677229258821688</v>
       </c>
       <c r="C69">
-        <v>-0.07201993880597087</v>
+        <v>0.08968873445418442</v>
       </c>
       <c r="D69">
-        <v>0.04384965911653381</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01344464558446664</v>
+      </c>
+      <c r="E69">
+        <v>-0.05363974943273551</v>
+      </c>
+      <c r="F69">
+        <v>0.06859380912299552</v>
+      </c>
+      <c r="G69">
+        <v>-0.07090672661941935</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1199870697696133</v>
+        <v>0.1461376110106856</v>
       </c>
       <c r="C71">
-        <v>0.2533517934138093</v>
+        <v>-0.2393965868128318</v>
       </c>
       <c r="D71">
-        <v>-0.01512476884780301</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.000636421487797814</v>
+      </c>
+      <c r="E71">
+        <v>-0.05849429583077214</v>
+      </c>
+      <c r="F71">
+        <v>0.02577430214010763</v>
+      </c>
+      <c r="G71">
+        <v>-0.05858232730633821</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09220573684623942</v>
+        <v>0.1000662080749625</v>
       </c>
       <c r="C72">
-        <v>-0.05571145742102816</v>
+        <v>0.05838732770756699</v>
       </c>
       <c r="D72">
-        <v>-0.002709655790057513</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.0264069135857838</v>
+      </c>
+      <c r="E72">
+        <v>-0.02670186000595923</v>
+      </c>
+      <c r="F72">
+        <v>0.04308929414137383</v>
+      </c>
+      <c r="G72">
+        <v>-0.06490200865175884</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.404375440672352</v>
+        <v>0.341632292903954</v>
       </c>
       <c r="C73">
-        <v>-0.05007553048876655</v>
+        <v>0.07210797863884601</v>
       </c>
       <c r="D73">
-        <v>-0.3995526148253892</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.525130580221686</v>
+      </c>
+      <c r="E73">
+        <v>0.4344561774310272</v>
+      </c>
+      <c r="F73">
+        <v>-0.2280176432589763</v>
+      </c>
+      <c r="G73">
+        <v>-0.02303738706524714</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1041890350320952</v>
+        <v>0.1091339655123634</v>
       </c>
       <c r="C74">
-        <v>-0.09560616538895957</v>
+        <v>0.09580807346021789</v>
       </c>
       <c r="D74">
-        <v>0.03292190729050532</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04422630044883887</v>
+      </c>
+      <c r="E74">
+        <v>-0.06148640009138147</v>
+      </c>
+      <c r="F74">
+        <v>-0.004162672441860546</v>
+      </c>
+      <c r="G74">
+        <v>-0.06723735974083864</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2526072989863685</v>
+        <v>0.2569205246341116</v>
       </c>
       <c r="C75">
-        <v>-0.1042816676650097</v>
+        <v>0.132386258465034</v>
       </c>
       <c r="D75">
-        <v>0.1239377585788164</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1487840303815638</v>
+      </c>
+      <c r="E75">
+        <v>-0.04250946589572976</v>
+      </c>
+      <c r="F75">
+        <v>-0.04441910352641603</v>
+      </c>
+      <c r="G75">
+        <v>-0.008978709266763441</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1135993003098466</v>
+        <v>0.1274420703019672</v>
       </c>
       <c r="C76">
-        <v>-0.08117341888957248</v>
+        <v>0.09407262416894749</v>
       </c>
       <c r="D76">
-        <v>0.06255275341211618</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.0749976532505269</v>
+      </c>
+      <c r="E76">
+        <v>-0.06706877638466825</v>
+      </c>
+      <c r="F76">
+        <v>0.01911566345497765</v>
+      </c>
+      <c r="G76">
+        <v>-0.05553214797323942</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07668432440232591</v>
+        <v>0.06266226831830857</v>
       </c>
       <c r="C77">
-        <v>-0.05296035615682419</v>
+        <v>0.06307282848283735</v>
       </c>
       <c r="D77">
-        <v>-0.04876285623566595</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.04919884382468795</v>
+      </c>
+      <c r="E77">
+        <v>-0.09932662382318323</v>
+      </c>
+      <c r="F77">
+        <v>0.1619618926880207</v>
+      </c>
+      <c r="G77">
+        <v>0.1048784614172797</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04833747671404255</v>
+        <v>0.04500212071017288</v>
       </c>
       <c r="C78">
-        <v>-0.04636278057138476</v>
+        <v>0.05612970267789399</v>
       </c>
       <c r="D78">
-        <v>-0.01913160812142891</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.05676621749882618</v>
+      </c>
+      <c r="E78">
+        <v>-0.05540527364930437</v>
+      </c>
+      <c r="F78">
+        <v>0.07234381500981908</v>
+      </c>
+      <c r="G78">
+        <v>-0.05129233141080209</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02962849759539874</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.04588887347601683</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0751542248256928</v>
+      </c>
+      <c r="E79">
+        <v>-0.0589498921255879</v>
+      </c>
+      <c r="F79">
+        <v>-0.01288121463122739</v>
+      </c>
+      <c r="G79">
+        <v>-0.06107411797561894</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03929223380728208</v>
+        <v>0.03066515354741849</v>
       </c>
       <c r="C80">
-        <v>-0.04490619393970285</v>
+        <v>0.04833858237403003</v>
       </c>
       <c r="D80">
-        <v>-0.02570022943556645</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03629232806545228</v>
+      </c>
+      <c r="E80">
+        <v>-0.01876056584406788</v>
+      </c>
+      <c r="F80">
+        <v>0.04565907944380837</v>
+      </c>
+      <c r="G80">
+        <v>0.0233725379206066</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1388328364000085</v>
+        <v>0.1388550289605473</v>
       </c>
       <c r="C81">
-        <v>-0.07563907175624238</v>
+        <v>0.09440139087683407</v>
       </c>
       <c r="D81">
-        <v>0.08960964371541394</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1191448579208262</v>
+      </c>
+      <c r="E81">
+        <v>-0.06779787256752021</v>
+      </c>
+      <c r="F81">
+        <v>-0.02802434563909511</v>
+      </c>
+      <c r="G81">
+        <v>-0.02072757371938045</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1758625122587888</v>
+        <v>0.2125446675583724</v>
       </c>
       <c r="C82">
-        <v>-0.09371843794458193</v>
+        <v>0.1575455226501804</v>
       </c>
       <c r="D82">
-        <v>0.182783012325723</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.245657391204025</v>
+      </c>
+      <c r="E82">
+        <v>0.02386687615725309</v>
+      </c>
+      <c r="F82">
+        <v>0.05132354706555261</v>
+      </c>
+      <c r="G82">
+        <v>-0.04814061184170814</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.03952279247642983</v>
+        <v>0.02691192495015988</v>
       </c>
       <c r="C83">
-        <v>-0.03138195309169256</v>
+        <v>0.04340098367567418</v>
       </c>
       <c r="D83">
-        <v>-0.03461755389568568</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.0282173888229479</v>
+      </c>
+      <c r="E83">
+        <v>-0.02673706575598714</v>
+      </c>
+      <c r="F83">
+        <v>0.04825279011979326</v>
+      </c>
+      <c r="G83">
+        <v>0.001380401481065113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0004513448603851581</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0001973447123079503</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.001868846374000298</v>
+      </c>
+      <c r="E84">
+        <v>-0.002372363352452687</v>
+      </c>
+      <c r="F84">
+        <v>-0.0009275847478462684</v>
+      </c>
+      <c r="G84">
+        <v>-0.002111056624182353</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2205269325541001</v>
+        <v>0.2033414020609149</v>
       </c>
       <c r="C85">
-        <v>-0.1014759821595394</v>
+        <v>0.1164107686306189</v>
       </c>
       <c r="D85">
-        <v>0.1504133991411138</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1143887426759899</v>
+      </c>
+      <c r="E85">
+        <v>0.02575777559278103</v>
+      </c>
+      <c r="F85">
+        <v>-0.09173335286172472</v>
+      </c>
+      <c r="G85">
+        <v>-0.05424214944680929</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.006670155397494987</v>
+        <v>0.009101904822810775</v>
       </c>
       <c r="C86">
-        <v>-0.02763182433496421</v>
+        <v>0.02035353086757397</v>
       </c>
       <c r="D86">
-        <v>-0.04232027247589472</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05611048344294791</v>
+      </c>
+      <c r="E86">
+        <v>-0.07472805574505743</v>
+      </c>
+      <c r="F86">
+        <v>0.1118894653070849</v>
+      </c>
+      <c r="G86">
+        <v>-0.05818285302361945</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02405390840224841</v>
+        <v>0.02426550041634589</v>
       </c>
       <c r="C87">
-        <v>-0.004803177446448544</v>
+        <v>0.01247547700995115</v>
       </c>
       <c r="D87">
-        <v>-0.08081558488156865</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07654810974202189</v>
+      </c>
+      <c r="E87">
+        <v>-0.1277857870374366</v>
+      </c>
+      <c r="F87">
+        <v>0.08144507621493108</v>
+      </c>
+      <c r="G87">
+        <v>-0.001470787126479109</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1049880708154618</v>
+        <v>0.09097666728882525</v>
       </c>
       <c r="C88">
-        <v>-0.07585275199176521</v>
+        <v>0.06399331848391511</v>
       </c>
       <c r="D88">
-        <v>0.0287908128164818</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.003152789532584365</v>
+      </c>
+      <c r="E88">
+        <v>-0.04892054759017955</v>
+      </c>
+      <c r="F88">
+        <v>0.07555533511313872</v>
+      </c>
+      <c r="G88">
+        <v>-0.02453176875931112</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1875328487099276</v>
+        <v>0.2232318812824449</v>
       </c>
       <c r="C89">
-        <v>0.3729329884012228</v>
+        <v>-0.3779006213639877</v>
       </c>
       <c r="D89">
-        <v>0.03028558839037194</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.02842803942362874</v>
+      </c>
+      <c r="E89">
+        <v>-0.0681970349876872</v>
+      </c>
+      <c r="F89">
+        <v>0.09700305404300411</v>
+      </c>
+      <c r="G89">
+        <v>0.02450551352851752</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1791659631175532</v>
+        <v>0.2017372297314597</v>
       </c>
       <c r="C90">
-        <v>0.3301947632775343</v>
+        <v>-0.3073470997111291</v>
       </c>
       <c r="D90">
-        <v>0.03591945329830267</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.02725503846804972</v>
+      </c>
+      <c r="E90">
+        <v>-0.06589766343580199</v>
+      </c>
+      <c r="F90">
+        <v>0.0374261175334489</v>
+      </c>
+      <c r="G90">
+        <v>-0.007516075663061475</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1886894091285796</v>
+        <v>0.1857630679240926</v>
       </c>
       <c r="C91">
-        <v>-0.1290817448616581</v>
+        <v>0.145269953956276</v>
       </c>
       <c r="D91">
-        <v>0.1147560356299348</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1265139760358492</v>
+      </c>
+      <c r="E91">
+        <v>-0.04629039049122658</v>
+      </c>
+      <c r="F91">
+        <v>-0.01069987142644009</v>
+      </c>
+      <c r="G91">
+        <v>-0.02503862179773673</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1648321352135734</v>
+        <v>0.1839155259630296</v>
       </c>
       <c r="C92">
-        <v>0.2858570432970124</v>
+        <v>-0.2896418166640225</v>
       </c>
       <c r="D92">
-        <v>0.03001587474822847</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.02930036271168975</v>
+      </c>
+      <c r="E92">
+        <v>-0.0702197785847556</v>
+      </c>
+      <c r="F92">
+        <v>0.07101762206407418</v>
+      </c>
+      <c r="G92">
+        <v>-0.01706821883433977</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2024905238918717</v>
+        <v>0.2247344079574279</v>
       </c>
       <c r="C93">
-        <v>0.3364506355784458</v>
+        <v>-0.317284850698266</v>
       </c>
       <c r="D93">
-        <v>0.03654113487134909</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.02162137240208946</v>
+      </c>
+      <c r="E93">
+        <v>-0.04031171305006422</v>
+      </c>
+      <c r="F93">
+        <v>0.0143051471241932</v>
+      </c>
+      <c r="G93">
+        <v>-0.03811463471022827</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3324028914847629</v>
+        <v>0.3360863218441165</v>
       </c>
       <c r="C94">
-        <v>-0.1549177077956317</v>
+        <v>0.191648184856294</v>
       </c>
       <c r="D94">
-        <v>0.3680524918901746</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.432899823768974</v>
+      </c>
+      <c r="E94">
+        <v>0.004590247182551445</v>
+      </c>
+      <c r="F94">
+        <v>-0.2375922143904674</v>
+      </c>
+      <c r="G94">
+        <v>0.4263436247092475</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1143571853255876</v>
+        <v>0.08479365329465735</v>
       </c>
       <c r="C95">
-        <v>-0.07095236839052717</v>
+        <v>0.06384325627044182</v>
       </c>
       <c r="D95">
-        <v>-0.1613061192117412</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1828088030751979</v>
+      </c>
+      <c r="E95">
+        <v>0.08793871491399405</v>
+      </c>
+      <c r="F95">
+        <v>0.587394891519787</v>
+      </c>
+      <c r="G95">
+        <v>0.6925638209916609</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1956570837870966</v>
+        <v>0.1874303120093553</v>
       </c>
       <c r="C98">
-        <v>-0.01977830864538309</v>
+        <v>0.04611420263582529</v>
       </c>
       <c r="D98">
-        <v>-0.1393023819751104</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.2015891308637168</v>
+      </c>
+      <c r="E98">
+        <v>0.1305424177820637</v>
+      </c>
+      <c r="F98">
+        <v>-0.06584829178728244</v>
+      </c>
+      <c r="G98">
+        <v>-0.08372700881731551</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.006228417272147623</v>
+        <v>0.004913850951592844</v>
       </c>
       <c r="C101">
-        <v>-0.03418534049968434</v>
+        <v>0.0293367661879291</v>
       </c>
       <c r="D101">
-        <v>0.0156729244287217</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01519838053435629</v>
+      </c>
+      <c r="E101">
+        <v>-0.04824105844418365</v>
+      </c>
+      <c r="F101">
+        <v>0.08082170448720435</v>
+      </c>
+      <c r="G101">
+        <v>-0.06498285503351611</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1251149358205185</v>
+        <v>0.1266870317825557</v>
       </c>
       <c r="C102">
-        <v>-0.06848947779364081</v>
+        <v>0.1004818159453973</v>
       </c>
       <c r="D102">
-        <v>0.04138891463677036</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05204404368839297</v>
+      </c>
+      <c r="E102">
+        <v>0.01136196121924025</v>
+      </c>
+      <c r="F102">
+        <v>0.01864687090446044</v>
+      </c>
+      <c r="G102">
+        <v>4.261073140025032e-06</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
